--- a/assets/mesada.xlsx
+++ b/assets/mesada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56c9449150e6bc49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0CFD23A-675C-47EB-9B0C-B111AF2FF711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{B0CFD23A-675C-47EB-9B0C-B111AF2FF711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CE6A830-2AFF-43E4-BCD8-0186A343D8E5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FDD9308-D067-418F-8715-3FE29BB31761}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Valor EUR</t>
-  </si>
-  <si>
-    <t>Mês Uso</t>
-  </si>
-  <si>
     <t>Fevereiro</t>
   </si>
   <si>
@@ -56,13 +50,44 @@
     <t>Transferência pai</t>
   </si>
   <si>
-    <t>Aluguel Lauren Fevereiro</t>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Wise</t>
+  </si>
+  <si>
+    <t>Meio</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Aluguel Lauren</t>
+  </si>
+  <si>
+    <t>Valor Reais</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Preço EUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,10 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,8 +139,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,61 +460,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD7AF6F-21C6-4251-A2E3-5A3F67F31F67}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>153.78</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>466</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>155.22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3355.44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>45703</v>
+      </c>
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C7" s="2">
+        <v>203.04</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>45687</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C8" s="2">
+        <v>205.61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>355.44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>45703</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>203.04</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="F9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/assets/mesada.xlsx
+++ b/assets/mesada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56c9449150e6bc49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{B0CFD23A-675C-47EB-9B0C-B111AF2FF711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CE6A830-2AFF-43E4-BCD8-0186A343D8E5}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{B0CFD23A-675C-47EB-9B0C-B111AF2FF711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{604F7846-42DF-4BE1-AF08-41F30D4AAA6A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FDD9308-D067-418F-8715-3FE29BB31761}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>Data</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Preço EUR</t>
+  </si>
+  <si>
+    <t>Maio</t>
   </si>
 </sst>
 </file>
@@ -137,10 +140,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD7AF6F-21C6-4251-A2E3-5A3F67F31F67}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,6 +638,74 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100.56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>200.18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>200.4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
     <sortCondition ref="A1:A9"/>
